--- a/Reports/Моніторінг_цін.xlsx
+++ b/Reports/Моніторінг_цін.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Моніторінг_цін" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr refMode="A1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -210,29 +211,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
-      <sz val="8"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FF323232"/>
-      <sz val="8"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FFAAAAAA"/>
-      <sz val="8"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
@@ -335,126 +335,405 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="5" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="6" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="true" summaryRight="true"/>
-  </sheetPr>
-  <dimension ref="A1:AG32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="A1" activeCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" customHeight="true" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" style="1" width="4.7109375" customWidth="true"/>
-    <col max="2" min="2" style="1" width="46.99609375" customWidth="true"/>
-    <col max="3" min="3" style="1" width="0.28515625" customWidth="true"/>
-    <col max="33" min="4" style="1" width="14.28515625" customWidth="true"/>
-    <col max="16384" min="33" style="1" width="12.140625"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47" style="1" customWidth="1"/>
+    <col min="3" max="3" width="0.28515625" style="1" customWidth="1"/>
+    <col min="4" max="33" width="14.28515625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="true" ht="14.25" customFormat="true" s="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
     </row>
-    <row r="2" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="2" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -553,2981 +832,2987 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="8">
         <v>903.61</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="8">
         <v>244.97</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="8">
         <v>780.9</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="8">
         <v>184.79</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="8">
         <v>170.99</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="8">
         <v>981.4</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="8">
         <v>672.12</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="8">
         <v>593.88</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="8">
         <v>411.98</v>
       </c>
-      <c r="M3" s="8" t="n">
-        <v>574.69</v>
-      </c>
-      <c r="N3" s="8" t="n">
+      <c r="M3" s="8">
+        <v>574.69000000000005</v>
+      </c>
+      <c r="N3" s="8">
         <v>706.6</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="8">
         <v>137.56</v>
       </c>
-      <c r="P3" s="8" t="n">
+      <c r="P3" s="8">
         <v>956.71</v>
       </c>
-      <c r="Q3" s="8" t="n">
+      <c r="Q3" s="8">
         <v>568</v>
       </c>
-      <c r="R3" s="8" t="n">
+      <c r="R3" s="8">
         <v>934.85</v>
       </c>
-      <c r="S3" s="8" t="n">
+      <c r="S3" s="8">
         <v>842.56</v>
       </c>
-      <c r="T3" s="8" t="n">
+      <c r="T3" s="8">
         <v>951.4</v>
       </c>
-      <c r="U3" s="8" t="n">
+      <c r="U3" s="8">
         <v>546.12</v>
       </c>
-      <c r="V3" s="8" t="n">
+      <c r="V3" s="8">
         <v>956.92</v>
       </c>
-      <c r="W3" s="8" t="n">
+      <c r="W3" s="8">
         <v>974.89</v>
       </c>
-      <c r="X3" s="8" t="n">
+      <c r="X3" s="8">
         <v>340.17</v>
       </c>
-      <c r="Y3" s="8" t="n">
+      <c r="Y3" s="8">
         <v>854.38</v>
       </c>
-      <c r="Z3" s="8" t="n">
+      <c r="Z3" s="8">
         <v>991</v>
       </c>
-      <c r="AA3" s="8" t="n">
+      <c r="AA3" s="8">
         <v>996.09</v>
       </c>
-      <c r="AB3" s="8" t="n">
+      <c r="AB3" s="8">
         <v>275.68</v>
       </c>
-      <c r="AC3" s="8" t="n">
+      <c r="AC3" s="8">
         <v>665.39</v>
       </c>
-      <c r="AD3" s="8" t="n">
+      <c r="AD3" s="8">
         <v>947.78</v>
       </c>
-      <c r="AE3" s="8" t="n">
-        <v>588.33</v>
-      </c>
-      <c r="AF3" s="8" t="n">
+      <c r="AE3" s="8">
+        <v>588.33000000000004</v>
+      </c>
+      <c r="AF3" s="8">
         <v>776.87</v>
       </c>
-      <c r="AG3" s="8" t="n">
+      <c r="AG3" s="8">
         <v>744.92</v>
       </c>
     </row>
-    <row r="4" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A4" s="9" t="n">
+    <row r="4" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>21</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="12">
         <v>85.35</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="12">
         <v>128.71</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="12">
         <v>193.13</v>
       </c>
-      <c r="G4" s="12" t="n">
+      <c r="G4" s="12">
         <v>265.39</v>
       </c>
-      <c r="H4" s="12" t="n">
+      <c r="H4" s="12">
         <v>905.83</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" s="12">
         <v>585.51</v>
       </c>
-      <c r="J4" s="12" t="n">
+      <c r="J4" s="12">
         <v>324.88</v>
       </c>
-      <c r="K4" s="12" t="n">
+      <c r="K4" s="12">
         <v>145.56</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="12">
         <v>983.22</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="12">
         <v>851.65</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="12">
         <v>752.86</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="12">
         <v>140.44</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="12">
         <v>97.77</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="12">
         <v>330.3</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="12">
         <v>377.72</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="12">
         <v>584.16</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="12">
         <v>425.4</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="12">
         <v>930.79</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="12">
         <v>103.04</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="12">
         <v>742.05</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="12">
         <v>353.97</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="12">
         <v>421.89</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="12">
         <v>987.92</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="12">
         <v>389.7</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="12">
         <v>395.21</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="12">
         <v>923.22</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="12">
         <v>692.14</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="12">
         <v>884.89</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="12">
         <v>733.13</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="12">
         <v>789.42</v>
       </c>
     </row>
-    <row r="5" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="8">
         <v>964.63</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="8">
         <v>123.1</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="8">
         <v>988.83</v>
       </c>
-      <c r="G5" s="8" t="n">
-        <v>64.57</v>
-      </c>
-      <c r="H5" s="8" t="n">
+      <c r="G5" s="8">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="H5" s="8">
         <v>383.46</v>
       </c>
-      <c r="I5" s="8" t="n">
-        <v>602.08</v>
-      </c>
-      <c r="J5" s="8" t="n">
+      <c r="I5" s="8">
+        <v>602.08000000000004</v>
+      </c>
+      <c r="J5" s="8">
         <v>909.24</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="8">
         <v>992.63</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="8">
         <v>490.8</v>
       </c>
-      <c r="M5" s="8" t="n">
+      <c r="M5" s="8">
         <v>220.09</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="8">
         <v>113.87</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="8">
         <v>929.02</v>
       </c>
-      <c r="P5" s="8" t="n">
+      <c r="P5" s="8">
         <v>541.74</v>
       </c>
-      <c r="Q5" s="8" t="n">
+      <c r="Q5" s="8">
         <v>934.58</v>
       </c>
-      <c r="R5" s="8" t="n">
+      <c r="R5" s="8">
         <v>525.35</v>
       </c>
-      <c r="S5" s="8" t="n">
-        <v>546.55</v>
-      </c>
-      <c r="T5" s="8" t="n">
+      <c r="S5" s="8">
+        <v>546.54999999999995</v>
+      </c>
+      <c r="T5" s="8">
         <v>363.37</v>
       </c>
-      <c r="U5" s="8" t="n">
+      <c r="U5" s="8">
         <v>292.07</v>
       </c>
-      <c r="V5" s="8" t="n">
+      <c r="V5" s="8">
         <v>830.58</v>
       </c>
-      <c r="W5" s="8" t="n">
+      <c r="W5" s="8">
         <v>859.69</v>
       </c>
-      <c r="X5" s="8" t="n">
+      <c r="X5" s="8">
         <v>997.71</v>
       </c>
-      <c r="Y5" s="8" t="n">
-        <v>540.56</v>
-      </c>
-      <c r="Z5" s="8" t="n">
+      <c r="Y5" s="8">
+        <v>540.55999999999995</v>
+      </c>
+      <c r="Z5" s="8">
         <v>898.99</v>
       </c>
-      <c r="AA5" s="8" t="n">
+      <c r="AA5" s="8">
         <v>720.64</v>
       </c>
-      <c r="AB5" s="8" t="n">
+      <c r="AB5" s="8">
         <v>146.99</v>
       </c>
-      <c r="AC5" s="8" t="n">
+      <c r="AC5" s="8">
         <v>662.29</v>
       </c>
-      <c r="AD5" s="8" t="n">
+      <c r="AD5" s="8">
         <v>188.34</v>
       </c>
-      <c r="AE5" s="8" t="n">
+      <c r="AE5" s="8">
         <v>771.95</v>
       </c>
-      <c r="AF5" s="8" t="n">
+      <c r="AF5" s="8">
         <v>58.3</v>
       </c>
-      <c r="AG5" s="8" t="n">
+      <c r="AG5" s="8">
         <v>87.21</v>
       </c>
     </row>
-    <row r="6" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A6" s="9" t="n">
+    <row r="6" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="12">
         <v>310.17</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="12">
         <v>696.39</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="12">
         <v>497.82</v>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="12">
         <v>59.34</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="12">
         <v>883.62</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="12">
         <v>413.69</v>
       </c>
-      <c r="J6" s="12" t="n">
+      <c r="J6" s="12">
         <v>897.51</v>
       </c>
-      <c r="K6" s="12" t="n">
+      <c r="K6" s="12">
         <v>348.13</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="12">
         <v>434.9</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="12">
         <v>920.34</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="12">
         <v>909.66</v>
       </c>
-      <c r="O6" s="12" t="n">
-        <v>553.18</v>
-      </c>
-      <c r="P6" s="12" t="n">
+      <c r="O6" s="12">
+        <v>553.17999999999995</v>
+      </c>
+      <c r="P6" s="12">
         <v>195.23</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="12">
         <v>389.7</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="12">
         <v>395.46</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="12">
         <v>724.38</v>
       </c>
-      <c r="T6" s="12" t="n">
-        <v>291.54</v>
-      </c>
-      <c r="U6" s="12" t="n">
+      <c r="T6" s="12">
+        <v>291.54000000000002</v>
+      </c>
+      <c r="U6" s="12">
         <v>233.02</v>
       </c>
-      <c r="V6" s="12" t="n">
+      <c r="V6" s="12">
         <v>852.75</v>
       </c>
-      <c r="W6" s="12" t="n">
+      <c r="W6" s="12">
         <v>578.88</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="12">
         <v>84.33</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="12">
         <v>738.77</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="12">
         <v>600.27</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="12">
         <v>485.18</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="12">
         <v>471.78</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="12">
         <v>85.58</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="12">
         <v>328</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="12">
         <v>826.44</v>
       </c>
-      <c r="AF6" s="12" t="n">
-        <v>286.46</v>
-      </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AF6" s="12">
+        <v>286.45999999999998</v>
+      </c>
+      <c r="AG6" s="12">
         <v>249.8</v>
       </c>
     </row>
-    <row r="7" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="8">
         <v>727.9</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="8">
         <v>893.16</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="8">
         <v>271.39</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="8">
         <v>202.6</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="8">
         <v>888.07</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="8">
         <v>695.8</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="8">
         <v>964.53</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="8">
         <v>126.13</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="8">
         <v>449.47</v>
       </c>
-      <c r="M7" s="8" t="n">
-        <v>312.78</v>
-      </c>
-      <c r="N7" s="8" t="n">
+      <c r="M7" s="8">
+        <v>312.77999999999997</v>
+      </c>
+      <c r="N7" s="8">
         <v>791.01</v>
       </c>
-      <c r="O7" s="8" t="n">
+      <c r="O7" s="8">
         <v>824.05</v>
       </c>
-      <c r="P7" s="8" t="n">
+      <c r="P7" s="8">
         <v>799.8</v>
       </c>
-      <c r="Q7" s="8" t="n">
+      <c r="Q7" s="8">
         <v>553.53</v>
       </c>
-      <c r="R7" s="8" t="n">
+      <c r="R7" s="8">
         <v>336.77</v>
       </c>
-      <c r="S7" s="8" t="n">
+      <c r="S7" s="8">
         <v>187.19</v>
       </c>
-      <c r="T7" s="8" t="n">
+      <c r="T7" s="8">
         <v>682.52</v>
       </c>
-      <c r="U7" s="8" t="n">
-        <v>321.85</v>
-      </c>
-      <c r="V7" s="8" t="n">
+      <c r="U7" s="8">
+        <v>321.85000000000002</v>
+      </c>
+      <c r="V7" s="8">
         <v>294</v>
       </c>
-      <c r="W7" s="8" t="n">
+      <c r="W7" s="8">
         <v>812.63</v>
       </c>
-      <c r="X7" s="8" t="n">
+      <c r="X7" s="8">
         <v>710.02</v>
       </c>
-      <c r="Y7" s="8" t="n">
+      <c r="Y7" s="8">
         <v>312.13</v>
       </c>
-      <c r="Z7" s="8" t="n">
-        <v>139.08</v>
-      </c>
-      <c r="AA7" s="8" t="n">
+      <c r="Z7" s="8">
+        <v>139.08000000000001</v>
+      </c>
+      <c r="AA7" s="8">
         <v>791.06</v>
       </c>
-      <c r="AB7" s="8" t="n">
-        <v>257.84</v>
-      </c>
-      <c r="AC7" s="8" t="n">
+      <c r="AB7" s="8">
+        <v>257.83999999999997</v>
+      </c>
+      <c r="AC7" s="8">
         <v>975.51</v>
       </c>
-      <c r="AD7" s="8" t="n">
+      <c r="AD7" s="8">
         <v>792.61</v>
       </c>
-      <c r="AE7" s="8" t="n">
+      <c r="AE7" s="8">
         <v>792.03</v>
       </c>
-      <c r="AF7" s="8" t="n">
-        <v>154.89</v>
-      </c>
-      <c r="AG7" s="8" t="n">
-        <v>533.56</v>
+      <c r="AF7" s="8">
+        <v>154.88999999999999</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>533.55999999999995</v>
       </c>
     </row>
-    <row r="8" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A8" s="9" t="n">
+    <row r="8" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="12">
         <v>247.15</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="12">
         <v>386.66</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="12">
         <v>478.23</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="12">
         <v>131.38</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="12">
         <v>753.48</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="12">
         <v>511.7</v>
       </c>
-      <c r="J8" s="12" t="n">
+      <c r="J8" s="12">
         <v>812.27</v>
       </c>
-      <c r="K8" s="12" t="n">
+      <c r="K8" s="12">
         <v>490.76</v>
       </c>
-      <c r="L8" s="12" t="n">
+      <c r="L8" s="12">
         <v>669.94</v>
       </c>
-      <c r="M8" s="12" t="n">
+      <c r="M8" s="12">
         <v>829.94</v>
       </c>
-      <c r="N8" s="12" t="n">
+      <c r="N8" s="12">
         <v>410.8</v>
       </c>
-      <c r="O8" s="12" t="n">
+      <c r="O8" s="12">
         <v>704.75</v>
       </c>
-      <c r="P8" s="12" t="n">
+      <c r="P8" s="12">
         <v>100.93</v>
       </c>
-      <c r="Q8" s="12" t="n">
+      <c r="Q8" s="12">
         <v>94.05</v>
       </c>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="12">
         <v>277.44</v>
       </c>
-      <c r="S8" s="12" t="n">
+      <c r="S8" s="12">
         <v>530.37</v>
       </c>
-      <c r="T8" s="12" t="n">
+      <c r="T8" s="12">
         <v>974.73</v>
       </c>
-      <c r="U8" s="12" t="n">
+      <c r="U8" s="12">
         <v>229.69</v>
       </c>
-      <c r="V8" s="12" t="n">
+      <c r="V8" s="12">
         <v>322.87</v>
       </c>
-      <c r="W8" s="12" t="n">
+      <c r="W8" s="12">
         <v>460.33</v>
       </c>
-      <c r="X8" s="12" t="n">
+      <c r="X8" s="12">
         <v>86.42</v>
       </c>
-      <c r="Y8" s="12" t="n">
+      <c r="Y8" s="12">
         <v>118.7</v>
       </c>
-      <c r="Z8" s="12" t="n">
+      <c r="Z8" s="12">
         <v>975.04</v>
       </c>
-      <c r="AA8" s="12" t="n">
+      <c r="AA8" s="12">
         <v>855.93</v>
       </c>
-      <c r="AB8" s="12" t="n">
+      <c r="AB8" s="12">
         <v>188.68</v>
       </c>
-      <c r="AC8" s="12" t="n">
+      <c r="AC8" s="12">
         <v>284.18</v>
       </c>
-      <c r="AD8" s="12" t="n">
+      <c r="AD8" s="12">
         <v>109.99</v>
       </c>
-      <c r="AE8" s="12" t="n">
+      <c r="AE8" s="12">
         <v>887.57</v>
       </c>
-      <c r="AF8" s="12" t="n">
+      <c r="AF8" s="12">
         <v>490.22</v>
       </c>
-      <c r="AG8" s="12" t="n">
+      <c r="AG8" s="12">
         <v>956.97</v>
       </c>
     </row>
-    <row r="9" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A9" s="5" t="n">
+    <row r="9" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>36</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="8">
         <v>697.4</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="8">
         <v>396.71</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="8">
         <v>897.68</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="8">
         <v>595.04</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="8">
         <v>180.54</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="8">
         <v>846.83</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="8">
         <v>100.3</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="8">
         <v>883.56</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="8">
         <v>288.01</v>
       </c>
-      <c r="M9" s="8" t="n">
+      <c r="M9" s="8">
         <v>868.4</v>
       </c>
-      <c r="N9" s="8" t="n">
+      <c r="N9" s="8">
         <v>836.58</v>
       </c>
-      <c r="O9" s="8" t="n">
+      <c r="O9" s="8">
         <v>243.1</v>
       </c>
-      <c r="P9" s="8" t="n">
+      <c r="P9" s="8">
         <v>181.15</v>
       </c>
-      <c r="Q9" s="8" t="n">
+      <c r="Q9" s="8">
         <v>59.55</v>
       </c>
-      <c r="R9" s="8" t="n">
+      <c r="R9" s="8">
         <v>998.71</v>
       </c>
-      <c r="S9" s="8" t="n">
+      <c r="S9" s="8">
         <v>312.45</v>
       </c>
-      <c r="T9" s="8" t="n">
+      <c r="T9" s="8">
         <v>432.59</v>
       </c>
-      <c r="U9" s="8" t="n">
+      <c r="U9" s="8">
         <v>909.01</v>
       </c>
-      <c r="V9" s="8" t="n">
+      <c r="V9" s="8">
         <v>314.25</v>
       </c>
-      <c r="W9" s="8" t="n">
+      <c r="W9" s="8">
         <v>744.76</v>
       </c>
-      <c r="X9" s="8" t="n">
+      <c r="X9" s="8">
         <v>407.64</v>
       </c>
-      <c r="Y9" s="8" t="n">
+      <c r="Y9" s="8">
         <v>508.7</v>
       </c>
-      <c r="Z9" s="8" t="n">
+      <c r="Z9" s="8">
         <v>723.31</v>
       </c>
-      <c r="AA9" s="8" t="n">
+      <c r="AA9" s="8">
         <v>107.32</v>
       </c>
-      <c r="AB9" s="8" t="n">
+      <c r="AB9" s="8">
         <v>283.89</v>
       </c>
-      <c r="AC9" s="8" t="n">
+      <c r="AC9" s="8">
         <v>179.29</v>
       </c>
-      <c r="AD9" s="8" t="n">
+      <c r="AD9" s="8">
         <v>860.37</v>
       </c>
-      <c r="AE9" s="8" t="n">
+      <c r="AE9" s="8">
         <v>728.68</v>
       </c>
-      <c r="AF9" s="8" t="n">
+      <c r="AF9" s="8">
         <v>723.12</v>
       </c>
-      <c r="AG9" s="8" t="n">
+      <c r="AG9" s="8">
         <v>897.87</v>
       </c>
     </row>
-    <row r="10" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A10" s="9" t="n">
+    <row r="10" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>38</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="12">
         <v>744.69</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="12">
         <v>776.62</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="12">
         <v>253.08</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="12">
         <v>228.59</v>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="12">
         <v>178.06</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="12">
         <v>956.32</v>
       </c>
-      <c r="J10" s="12" t="n">
-        <v>80.24</v>
-      </c>
-      <c r="K10" s="12" t="n">
+      <c r="J10" s="12">
+        <v>80.239999999999995</v>
+      </c>
+      <c r="K10" s="12">
         <v>115.54</v>
       </c>
-      <c r="L10" s="12" t="n">
+      <c r="L10" s="12">
         <v>66.56</v>
       </c>
-      <c r="M10" s="12" t="n">
+      <c r="M10" s="12">
         <v>450.27</v>
       </c>
-      <c r="N10" s="12" t="n">
+      <c r="N10" s="12">
         <v>485.31</v>
       </c>
-      <c r="O10" s="12" t="n">
-        <v>143.55</v>
-      </c>
-      <c r="P10" s="12" t="n">
+      <c r="O10" s="12">
+        <v>143.55000000000001</v>
+      </c>
+      <c r="P10" s="12">
         <v>696.99</v>
       </c>
-      <c r="Q10" s="12" t="n">
+      <c r="Q10" s="12">
         <v>53.47</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="12">
         <v>832.83</v>
       </c>
-      <c r="S10" s="12" t="n">
+      <c r="S10" s="12">
         <v>392.09</v>
       </c>
-      <c r="T10" s="12" t="n">
+      <c r="T10" s="12">
         <v>797.59</v>
       </c>
-      <c r="U10" s="12" t="n">
+      <c r="U10" s="12">
         <v>840.14</v>
       </c>
-      <c r="V10" s="12" t="n">
+      <c r="V10" s="12">
         <v>480.92</v>
       </c>
-      <c r="W10" s="12" t="n">
+      <c r="W10" s="12">
         <v>188.99</v>
       </c>
-      <c r="X10" s="12" t="n">
+      <c r="X10" s="12">
         <v>669.22</v>
       </c>
-      <c r="Y10" s="12" t="n">
+      <c r="Y10" s="12">
         <v>270.52</v>
       </c>
-      <c r="Z10" s="12" t="n">
+      <c r="Z10" s="12">
         <v>84.1</v>
       </c>
-      <c r="AA10" s="12" t="n">
+      <c r="AA10" s="12">
         <v>770.15</v>
       </c>
-      <c r="AB10" s="12" t="n">
+      <c r="AB10" s="12">
         <v>398.05</v>
       </c>
-      <c r="AC10" s="12" t="n">
-        <v>528.55</v>
-      </c>
-      <c r="AD10" s="12" t="n">
+      <c r="AC10" s="12">
+        <v>528.54999999999995</v>
+      </c>
+      <c r="AD10" s="12">
         <v>300.82</v>
       </c>
-      <c r="AE10" s="12" t="n">
+      <c r="AE10" s="12">
         <v>466.58</v>
       </c>
-      <c r="AF10" s="12" t="n">
-        <v>67.71</v>
-      </c>
-      <c r="AG10" s="12" t="n">
+      <c r="AF10" s="12">
+        <v>67.709999999999994</v>
+      </c>
+      <c r="AG10" s="12">
         <v>443.46</v>
       </c>
     </row>
-    <row r="11" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="8">
         <v>214.63</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="8">
         <v>210.06</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="8">
         <v>808.52</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="8">
         <v>425.09</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="8">
         <v>367.18</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="8">
         <v>401.99</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11" s="8">
         <v>515.14</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="8">
         <v>308.7</v>
       </c>
-      <c r="L11" s="8" t="n">
-        <v>71.51</v>
-      </c>
-      <c r="M11" s="8" t="n">
+      <c r="L11" s="8">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="M11" s="8">
         <v>657.64</v>
       </c>
-      <c r="N11" s="8" t="n">
+      <c r="N11" s="8">
         <v>816.35</v>
       </c>
-      <c r="O11" s="8" t="n">
+      <c r="O11" s="8">
         <v>842.36</v>
       </c>
-      <c r="P11" s="8" t="n">
+      <c r="P11" s="8">
         <v>240.23</v>
       </c>
-      <c r="Q11" s="8" t="n">
+      <c r="Q11" s="8">
         <v>172.84</v>
       </c>
-      <c r="R11" s="8" t="n">
+      <c r="R11" s="8">
         <v>448.64</v>
       </c>
-      <c r="S11" s="8" t="n">
+      <c r="S11" s="8">
         <v>225.42</v>
       </c>
-      <c r="T11" s="8" t="n">
+      <c r="T11" s="8">
         <v>687.3</v>
       </c>
-      <c r="U11" s="8" t="n">
+      <c r="U11" s="8">
         <v>908.21</v>
       </c>
-      <c r="V11" s="8" t="n">
+      <c r="V11" s="8">
         <v>193.12</v>
       </c>
-      <c r="W11" s="8" t="n">
-        <v>642.08</v>
-      </c>
-      <c r="X11" s="8" t="n">
+      <c r="W11" s="8">
+        <v>642.08000000000004</v>
+      </c>
+      <c r="X11" s="8">
         <v>370.54</v>
       </c>
-      <c r="Y11" s="8" t="n">
+      <c r="Y11" s="8">
         <v>892.06</v>
       </c>
-      <c r="Z11" s="8" t="n">
+      <c r="Z11" s="8">
         <v>358.8</v>
       </c>
-      <c r="AA11" s="8" t="n">
+      <c r="AA11" s="8">
         <v>460.69</v>
       </c>
-      <c r="AB11" s="8" t="n">
+      <c r="AB11" s="8">
         <v>725.83</v>
       </c>
-      <c r="AC11" s="8" t="n">
+      <c r="AC11" s="8">
         <v>667.63</v>
       </c>
-      <c r="AD11" s="8" t="n">
+      <c r="AD11" s="8">
         <v>585.85</v>
       </c>
-      <c r="AE11" s="8" t="n">
+      <c r="AE11" s="8">
         <v>886.52</v>
       </c>
-      <c r="AF11" s="8" t="n">
+      <c r="AF11" s="8">
         <v>226.26</v>
       </c>
-      <c r="AG11" s="8" t="n">
+      <c r="AG11" s="8">
         <v>845.16</v>
       </c>
     </row>
-    <row r="12" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A12" s="9" t="n">
+    <row r="12" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>31</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="12">
         <v>439.49</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="12">
         <v>664.85</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="12">
         <v>179.94</v>
       </c>
-      <c r="G12" s="12" t="n">
-        <v>574.57</v>
-      </c>
-      <c r="H12" s="12" t="n">
+      <c r="G12" s="12">
+        <v>574.57000000000005</v>
+      </c>
+      <c r="H12" s="12">
         <v>643.02</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" s="12">
         <v>753.69</v>
       </c>
-      <c r="J12" s="12" t="n">
+      <c r="J12" s="12">
         <v>623.74</v>
       </c>
-      <c r="K12" s="12" t="n">
+      <c r="K12" s="12">
         <v>952.21</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="12">
         <v>468.25</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="12">
         <v>478.93</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="12">
         <v>697.06</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="12">
         <v>364.36</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="12">
         <v>211.56</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="12">
         <v>704.27</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="12">
         <v>697.23</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="S12" s="12">
         <v>339.56</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="12">
         <v>52.23</v>
       </c>
-      <c r="U12" s="12" t="n">
+      <c r="U12" s="12">
         <v>103.77</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="12">
         <v>373.99</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="12">
         <v>212.28</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="12">
         <v>480.1</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="12">
         <v>898.94</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="12">
         <v>171.72</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="12">
         <v>357.66</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="12">
         <v>697.38</v>
       </c>
-      <c r="AC12" s="12" t="n">
+      <c r="AC12" s="12">
         <v>589.02</v>
       </c>
-      <c r="AD12" s="12" t="n">
+      <c r="AD12" s="12">
         <v>188.16</v>
       </c>
-      <c r="AE12" s="12" t="n">
+      <c r="AE12" s="12">
         <v>233.95</v>
       </c>
-      <c r="AF12" s="12" t="n">
+      <c r="AF12" s="12">
         <v>281.48</v>
       </c>
-      <c r="AG12" s="12" t="n">
+      <c r="AG12" s="12">
         <v>757.02</v>
       </c>
     </row>
-    <row r="13" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A13" s="5" t="n">
+    <row r="13" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="8">
         <v>726.32</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="8">
         <v>369.53</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="8">
         <v>940.58</v>
       </c>
-      <c r="G13" s="8" t="n">
-        <v>309.66</v>
-      </c>
-      <c r="H13" s="8" t="n">
+      <c r="G13" s="8">
+        <v>309.66000000000003</v>
+      </c>
+      <c r="H13" s="8">
         <v>169.74</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="8">
         <v>837.13</v>
       </c>
-      <c r="J13" s="8" t="n">
+      <c r="J13" s="8">
         <v>934.39</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="8">
         <v>57.01</v>
       </c>
-      <c r="L13" s="8" t="n">
+      <c r="L13" s="8">
         <v>451.56</v>
       </c>
-      <c r="M13" s="8" t="n">
+      <c r="M13" s="8">
         <v>222.86</v>
       </c>
-      <c r="N13" s="8" t="n">
+      <c r="N13" s="8">
         <v>710.96</v>
       </c>
-      <c r="O13" s="8" t="n">
+      <c r="O13" s="8">
         <v>787.98</v>
       </c>
-      <c r="P13" s="8" t="n">
+      <c r="P13" s="8">
         <v>739.22</v>
       </c>
-      <c r="Q13" s="8" t="n">
+      <c r="Q13" s="8">
         <v>138.07</v>
       </c>
-      <c r="R13" s="8" t="n">
+      <c r="R13" s="8">
         <v>984.44</v>
       </c>
-      <c r="S13" s="8" t="n">
+      <c r="S13" s="8">
         <v>338.88</v>
       </c>
-      <c r="T13" s="8" t="n">
+      <c r="T13" s="8">
         <v>166.83</v>
       </c>
-      <c r="U13" s="8" t="n">
+      <c r="U13" s="8">
         <v>423.6</v>
       </c>
-      <c r="V13" s="8" t="n">
+      <c r="V13" s="8">
         <v>905.1</v>
       </c>
-      <c r="W13" s="8" t="n">
-        <v>539.93</v>
-      </c>
-      <c r="X13" s="8" t="n">
+      <c r="W13" s="8">
+        <v>539.92999999999995</v>
+      </c>
+      <c r="X13" s="8">
         <v>410.15</v>
       </c>
-      <c r="Y13" s="8" t="n">
+      <c r="Y13" s="8">
         <v>355.42</v>
       </c>
-      <c r="Z13" s="8" t="n">
+      <c r="Z13" s="8">
         <v>97.03</v>
       </c>
-      <c r="AA13" s="8" t="n">
+      <c r="AA13" s="8">
         <v>500.18</v>
       </c>
-      <c r="AB13" s="8" t="n">
+      <c r="AB13" s="8">
         <v>802.24</v>
       </c>
-      <c r="AC13" s="8" t="n">
+      <c r="AC13" s="8">
         <v>931.29</v>
       </c>
-      <c r="AD13" s="8" t="n">
+      <c r="AD13" s="8">
         <v>526</v>
       </c>
-      <c r="AE13" s="8" t="n">
+      <c r="AE13" s="8">
         <v>758.04</v>
       </c>
-      <c r="AF13" s="8" t="n">
-        <v>323.72</v>
-      </c>
-      <c r="AG13" s="8" t="n">
+      <c r="AF13" s="8">
+        <v>323.72000000000003</v>
+      </c>
+      <c r="AG13" s="8">
         <v>853.66</v>
       </c>
     </row>
-    <row r="14" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A14" s="9" t="n">
+    <row r="14" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>29</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="12">
         <v>613.49</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="12">
         <v>491.93</v>
       </c>
-      <c r="F14" s="12" t="n">
+      <c r="F14" s="12">
         <v>699.55</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" s="12">
         <v>398.12</v>
       </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="12">
         <v>505.5</v>
       </c>
-      <c r="I14" s="12" t="n">
+      <c r="I14" s="12">
         <v>281.68</v>
       </c>
-      <c r="J14" s="12" t="n">
+      <c r="J14" s="12">
         <v>548.98</v>
       </c>
-      <c r="K14" s="12" t="n">
+      <c r="K14" s="12">
         <v>380.84</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="12">
         <v>736.17</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="12">
         <v>194.47</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="12">
         <v>89.97</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="12">
         <v>704.89</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="12">
         <v>951.77</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="12">
         <v>886.02</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="12">
         <v>838.49</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="12">
         <v>522.61</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="12">
         <v>954.33</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="12">
         <v>860.93</v>
       </c>
-      <c r="V14" s="12" t="n">
-        <v>267.28</v>
-      </c>
-      <c r="W14" s="12" t="n">
+      <c r="V14" s="12">
+        <v>267.27999999999997</v>
+      </c>
+      <c r="W14" s="12">
         <v>133.62</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="12">
         <v>744.56</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="12">
         <v>270.87</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="12">
         <v>703.8</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="12">
         <v>353.06</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="12">
         <v>775.58</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="12">
         <v>903.62</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="12">
         <v>133.37</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="12">
         <v>695.19</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="12">
         <v>360.98</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="12">
         <v>207.8</v>
       </c>
     </row>
-    <row r="15" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A15" s="5" t="n">
+    <row r="15" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="8">
         <v>871.52</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="8">
         <v>219.53</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="8">
         <v>109.88</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="8">
         <v>145.85</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="8">
         <v>695.36</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="8">
         <v>969.91</v>
       </c>
-      <c r="J15" s="8" t="n">
-        <v>300.53</v>
-      </c>
-      <c r="K15" s="8" t="n">
+      <c r="J15" s="8">
+        <v>300.52999999999997</v>
+      </c>
+      <c r="K15" s="8">
         <v>547.1</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="8">
         <v>431.3</v>
       </c>
-      <c r="M15" s="8" t="n">
+      <c r="M15" s="8">
         <v>235.38</v>
       </c>
-      <c r="N15" s="8" t="n">
+      <c r="N15" s="8">
         <v>67.45</v>
       </c>
-      <c r="O15" s="8" t="n">
+      <c r="O15" s="8">
         <v>192.72</v>
       </c>
-      <c r="P15" s="8" t="n">
+      <c r="P15" s="8">
         <v>900.93</v>
       </c>
-      <c r="Q15" s="8" t="n">
+      <c r="Q15" s="8">
         <v>635.37</v>
       </c>
-      <c r="R15" s="8" t="n">
+      <c r="R15" s="8">
         <v>209.83</v>
       </c>
-      <c r="S15" s="8" t="n">
+      <c r="S15" s="8">
         <v>132.68</v>
       </c>
-      <c r="T15" s="8" t="n">
+      <c r="T15" s="8">
         <v>870.89</v>
       </c>
-      <c r="U15" s="8" t="n">
+      <c r="U15" s="8">
         <v>862.18</v>
       </c>
-      <c r="V15" s="8" t="n">
+      <c r="V15" s="8">
         <v>734.5</v>
       </c>
-      <c r="W15" s="8" t="n">
+      <c r="W15" s="8">
         <v>418.79</v>
       </c>
-      <c r="X15" s="8" t="n">
+      <c r="X15" s="8">
         <v>532.85</v>
       </c>
-      <c r="Y15" s="8" t="n">
-        <v>138.52</v>
-      </c>
-      <c r="Z15" s="8" t="n">
+      <c r="Y15" s="8">
+        <v>138.52000000000001</v>
+      </c>
+      <c r="Z15" s="8">
         <v>679.67</v>
       </c>
-      <c r="AA15" s="8" t="n">
+      <c r="AA15" s="8">
         <v>343.52</v>
       </c>
-      <c r="AB15" s="8" t="n">
+      <c r="AB15" s="8">
         <v>412.67</v>
       </c>
-      <c r="AC15" s="8" t="n">
+      <c r="AC15" s="8">
         <v>890.46</v>
       </c>
-      <c r="AD15" s="8" t="n">
+      <c r="AD15" s="8">
         <v>827.69</v>
       </c>
-      <c r="AE15" s="8" t="n">
+      <c r="AE15" s="8">
         <v>394.37</v>
       </c>
-      <c r="AF15" s="8" t="n">
+      <c r="AF15" s="8">
         <v>311.61</v>
       </c>
-      <c r="AG15" s="8" t="n">
-        <v>543.44</v>
+      <c r="AG15" s="8">
+        <v>543.44000000000005</v>
       </c>
     </row>
-    <row r="16" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A16" s="9" t="n">
+    <row r="16" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>28</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="12" t="n">
-        <v>594.42</v>
-      </c>
-      <c r="E16" s="12" t="n">
+      <c r="D16" s="12">
+        <v>594.41999999999996</v>
+      </c>
+      <c r="E16" s="12">
         <v>401.42</v>
       </c>
-      <c r="F16" s="12" t="n">
+      <c r="F16" s="12">
         <v>963.22</v>
       </c>
-      <c r="G16" s="12" t="n">
+      <c r="G16" s="12">
         <v>585.16</v>
       </c>
-      <c r="H16" s="12" t="n">
+      <c r="H16" s="12">
         <v>372.03</v>
       </c>
-      <c r="I16" s="12" t="n">
+      <c r="I16" s="12">
         <v>995.8</v>
       </c>
-      <c r="J16" s="12" t="n">
+      <c r="J16" s="12">
         <v>235.61</v>
       </c>
-      <c r="K16" s="12" t="n">
+      <c r="K16" s="12">
         <v>396.47</v>
       </c>
-      <c r="L16" s="12" t="n">
+      <c r="L16" s="12">
         <v>799.01</v>
       </c>
-      <c r="M16" s="12" t="n">
+      <c r="M16" s="12">
         <v>365.6</v>
       </c>
-      <c r="N16" s="12" t="n">
+      <c r="N16" s="12">
         <v>463.35</v>
       </c>
-      <c r="O16" s="12" t="n">
+      <c r="O16" s="12">
         <v>768.75</v>
       </c>
-      <c r="P16" s="12" t="n">
+      <c r="P16" s="12">
         <v>83.26</v>
       </c>
-      <c r="Q16" s="12" t="n">
-        <v>309.6</v>
-      </c>
-      <c r="R16" s="12" t="n">
+      <c r="Q16" s="12">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="R16" s="12">
         <v>488.28</v>
       </c>
-      <c r="S16" s="12" t="n">
+      <c r="S16" s="12">
         <v>265.56</v>
       </c>
-      <c r="T16" s="12" t="n">
-        <v>310.66</v>
-      </c>
-      <c r="U16" s="12" t="n">
+      <c r="T16" s="12">
+        <v>310.66000000000003</v>
+      </c>
+      <c r="U16" s="12">
         <v>782.1</v>
       </c>
-      <c r="V16" s="12" t="n">
+      <c r="V16" s="12">
         <v>661.84</v>
       </c>
-      <c r="W16" s="12" t="n">
+      <c r="W16" s="12">
         <v>708.98</v>
       </c>
-      <c r="X16" s="12" t="n">
+      <c r="X16" s="12">
         <v>942.87</v>
       </c>
-      <c r="Y16" s="12" t="n">
+      <c r="Y16" s="12">
         <v>877.36</v>
       </c>
-      <c r="Z16" s="12" t="n">
+      <c r="Z16" s="12">
         <v>116.6</v>
       </c>
-      <c r="AA16" s="12" t="n">
+      <c r="AA16" s="12">
         <v>575.78</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="12">
         <v>359.2</v>
       </c>
-      <c r="AC16" s="12" t="n">
+      <c r="AC16" s="12">
         <v>731.95</v>
       </c>
-      <c r="AD16" s="12" t="n">
+      <c r="AD16" s="12">
         <v>731.97</v>
       </c>
-      <c r="AE16" s="12" t="n">
+      <c r="AE16" s="12">
         <v>775.81</v>
       </c>
-      <c r="AF16" s="12" t="n">
+      <c r="AF16" s="12">
         <v>835.78</v>
       </c>
-      <c r="AG16" s="12" t="n">
+      <c r="AG16" s="12">
         <v>170.08</v>
       </c>
     </row>
-    <row r="17" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A17" s="5" t="n">
+    <row r="17" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>25</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="8">
         <v>949.48</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="8">
         <v>907.28</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="8">
         <v>509.16</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="8">
         <v>961.51</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="8">
         <v>929.39</v>
       </c>
-      <c r="I17" s="8" t="n">
-        <v>317.21</v>
-      </c>
-      <c r="J17" s="8" t="n">
+      <c r="I17" s="8">
+        <v>317.20999999999998</v>
+      </c>
+      <c r="J17" s="8">
         <v>517.03</v>
       </c>
-      <c r="K17" s="8" t="n">
-        <v>583.81</v>
-      </c>
-      <c r="L17" s="8" t="n">
+      <c r="K17" s="8">
+        <v>583.80999999999995</v>
+      </c>
+      <c r="L17" s="8">
         <v>75.92</v>
       </c>
-      <c r="M17" s="8" t="n">
+      <c r="M17" s="8">
         <v>974.99</v>
       </c>
-      <c r="N17" s="8" t="n">
+      <c r="N17" s="8">
         <v>189.4</v>
       </c>
-      <c r="O17" s="8" t="n">
+      <c r="O17" s="8">
         <v>227.11</v>
       </c>
-      <c r="P17" s="8" t="n">
+      <c r="P17" s="8">
         <v>256.88</v>
       </c>
-      <c r="Q17" s="8" t="n">
+      <c r="Q17" s="8">
         <v>168.07</v>
       </c>
-      <c r="R17" s="8" t="n">
+      <c r="R17" s="8">
         <v>832.99</v>
       </c>
-      <c r="S17" s="8" t="n">
+      <c r="S17" s="8">
         <v>596.97</v>
       </c>
-      <c r="T17" s="8" t="n">
+      <c r="T17" s="8">
         <v>441</v>
       </c>
-      <c r="U17" s="8" t="n">
+      <c r="U17" s="8">
         <v>373.31</v>
       </c>
-      <c r="V17" s="8" t="n">
+      <c r="V17" s="8">
         <v>890.74</v>
       </c>
-      <c r="W17" s="8" t="n">
+      <c r="W17" s="8">
         <v>894.59</v>
       </c>
-      <c r="X17" s="8" t="n">
+      <c r="X17" s="8">
         <v>793.68</v>
       </c>
-      <c r="Y17" s="8" t="n">
+      <c r="Y17" s="8">
         <v>748.53</v>
       </c>
-      <c r="Z17" s="8" t="n">
+      <c r="Z17" s="8">
         <v>373.92</v>
       </c>
-      <c r="AA17" s="8" t="n">
+      <c r="AA17" s="8">
         <v>372.67</v>
       </c>
-      <c r="AB17" s="8" t="n">
+      <c r="AB17" s="8">
         <v>464.51</v>
       </c>
-      <c r="AC17" s="8" t="n">
+      <c r="AC17" s="8">
         <v>935.75</v>
       </c>
-      <c r="AD17" s="8" t="n">
+      <c r="AD17" s="8">
         <v>868.67</v>
       </c>
-      <c r="AE17" s="8" t="n">
+      <c r="AE17" s="8">
         <v>63.99</v>
       </c>
-      <c r="AF17" s="8" t="n">
+      <c r="AF17" s="8">
         <v>944.62</v>
       </c>
-      <c r="AG17" s="8" t="n">
+      <c r="AG17" s="8">
         <v>992.96</v>
       </c>
     </row>
-    <row r="18" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A18" s="9" t="n">
+    <row r="18" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>40</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="12">
         <v>399.78</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="12">
         <v>721.02</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="12">
         <v>744.62</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="12">
         <v>800.18</v>
       </c>
-      <c r="H18" s="12" t="n">
+      <c r="H18" s="12">
         <v>104.92</v>
       </c>
-      <c r="I18" s="12" t="n">
+      <c r="I18" s="12">
         <v>836.76</v>
       </c>
-      <c r="J18" s="12" t="n">
+      <c r="J18" s="12">
         <v>932.57</v>
       </c>
-      <c r="K18" s="12" t="n">
+      <c r="K18" s="12">
         <v>441.29</v>
       </c>
-      <c r="L18" s="12" t="n">
+      <c r="L18" s="12">
         <v>772.93</v>
       </c>
-      <c r="M18" s="12" t="n">
+      <c r="M18" s="12">
         <v>986.44</v>
       </c>
-      <c r="N18" s="12" t="n">
+      <c r="N18" s="12">
         <v>393.09</v>
       </c>
-      <c r="O18" s="12" t="n">
+      <c r="O18" s="12">
         <v>536.75</v>
       </c>
-      <c r="P18" s="12" t="n">
+      <c r="P18" s="12">
         <v>442.28</v>
       </c>
-      <c r="Q18" s="12" t="n">
+      <c r="Q18" s="12">
         <v>948.06</v>
       </c>
-      <c r="R18" s="12" t="n">
+      <c r="R18" s="12">
         <v>741.07</v>
       </c>
-      <c r="S18" s="12" t="n">
+      <c r="S18" s="12">
         <v>212.62</v>
       </c>
-      <c r="T18" s="12" t="n">
+      <c r="T18" s="12">
         <v>463.5</v>
       </c>
-      <c r="U18" s="12" t="n">
+      <c r="U18" s="12">
         <v>731.61</v>
       </c>
-      <c r="V18" s="12" t="n">
+      <c r="V18" s="12">
         <v>614.76</v>
       </c>
-      <c r="W18" s="12" t="n">
+      <c r="W18" s="12">
         <v>688.37</v>
       </c>
-      <c r="X18" s="12" t="n">
+      <c r="X18" s="12">
         <v>761.71</v>
       </c>
-      <c r="Y18" s="12" t="n">
+      <c r="Y18" s="12">
         <v>371.11</v>
       </c>
-      <c r="Z18" s="12" t="n">
-        <v>611.8</v>
-      </c>
-      <c r="AA18" s="12" t="n">
+      <c r="Z18" s="12">
+        <v>611.79999999999995</v>
+      </c>
+      <c r="AA18" s="12">
         <v>996.27</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="12">
         <v>751.28</v>
       </c>
-      <c r="AC18" s="12" t="n">
-        <v>314.59</v>
-      </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AC18" s="12">
+        <v>314.58999999999997</v>
+      </c>
+      <c r="AD18" s="12">
         <v>771.83</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="12">
         <v>88.79</v>
       </c>
-      <c r="AF18" s="12" t="n">
-        <v>158.55</v>
-      </c>
-      <c r="AG18" s="12" t="n">
+      <c r="AF18" s="12">
+        <v>158.55000000000001</v>
+      </c>
+      <c r="AG18" s="12">
         <v>996.62</v>
       </c>
     </row>
-    <row r="19" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A19" s="5" t="n">
+    <row r="19" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="8">
         <v>441.96</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="8">
         <v>695.08</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="8">
         <v>168.55</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="8">
         <v>438.65</v>
       </c>
-      <c r="H19" s="8" t="n">
+      <c r="H19" s="8">
         <v>860.44</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="I19" s="8">
         <v>919.54</v>
       </c>
-      <c r="J19" s="8" t="n">
+      <c r="J19" s="8">
         <v>54.9</v>
       </c>
-      <c r="K19" s="8" t="n">
+      <c r="K19" s="8">
         <v>899.81</v>
       </c>
-      <c r="L19" s="8" t="n">
+      <c r="L19" s="8">
         <v>337.33</v>
       </c>
-      <c r="M19" s="8" t="n">
+      <c r="M19" s="8">
         <v>320.27</v>
       </c>
-      <c r="N19" s="8" t="n">
+      <c r="N19" s="8">
         <v>652.73</v>
       </c>
-      <c r="O19" s="8" t="n">
+      <c r="O19" s="8">
         <v>898.55</v>
       </c>
-      <c r="P19" s="8" t="n">
+      <c r="P19" s="8">
         <v>81.96</v>
       </c>
-      <c r="Q19" s="8" t="n">
+      <c r="Q19" s="8">
         <v>172.6</v>
       </c>
-      <c r="R19" s="8" t="n">
+      <c r="R19" s="8">
         <v>213.87</v>
       </c>
-      <c r="S19" s="8" t="n">
+      <c r="S19" s="8">
         <v>409.82</v>
       </c>
-      <c r="T19" s="8" t="n">
+      <c r="T19" s="8">
         <v>376.38</v>
       </c>
-      <c r="U19" s="8" t="n">
+      <c r="U19" s="8">
         <v>108.57</v>
       </c>
-      <c r="V19" s="8" t="n">
+      <c r="V19" s="8">
         <v>445.14</v>
       </c>
-      <c r="W19" s="8" t="n">
+      <c r="W19" s="8">
         <v>86.99</v>
       </c>
-      <c r="X19" s="8" t="n">
+      <c r="X19" s="8">
         <v>684.04</v>
       </c>
-      <c r="Y19" s="8" t="n">
+      <c r="Y19" s="8">
         <v>695.46</v>
       </c>
-      <c r="Z19" s="8" t="n">
+      <c r="Z19" s="8">
         <v>224.88</v>
       </c>
-      <c r="AA19" s="8" t="n">
+      <c r="AA19" s="8">
         <v>826.29</v>
       </c>
-      <c r="AB19" s="8" t="n">
+      <c r="AB19" s="8">
         <v>275.67</v>
       </c>
-      <c r="AC19" s="8" t="n">
+      <c r="AC19" s="8">
         <v>890.77</v>
       </c>
-      <c r="AD19" s="8" t="n">
+      <c r="AD19" s="8">
         <v>767.97</v>
       </c>
-      <c r="AE19" s="8" t="n">
+      <c r="AE19" s="8">
         <v>787.61</v>
       </c>
-      <c r="AF19" s="8" t="n">
+      <c r="AF19" s="8">
         <v>984.72</v>
       </c>
-      <c r="AG19" s="8" t="n">
+      <c r="AG19" s="8">
         <v>951.98</v>
       </c>
     </row>
-    <row r="20" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A20" s="9" t="n">
+    <row r="20" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>33</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="12">
         <v>510.71</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="12">
         <v>359.07</v>
       </c>
-      <c r="F20" s="12" t="n">
+      <c r="F20" s="12">
         <v>392.13</v>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="G20" s="12">
         <v>665.35</v>
       </c>
-      <c r="H20" s="12" t="n">
+      <c r="H20" s="12">
         <v>249.32</v>
       </c>
-      <c r="I20" s="12" t="n">
+      <c r="I20" s="12">
         <v>446.07</v>
       </c>
-      <c r="J20" s="12" t="n">
+      <c r="J20" s="12">
         <v>367.42</v>
       </c>
-      <c r="K20" s="12" t="n">
+      <c r="K20" s="12">
         <v>265.88</v>
       </c>
-      <c r="L20" s="12" t="n">
+      <c r="L20" s="12">
         <v>765</v>
       </c>
-      <c r="M20" s="12" t="n">
-        <v>263.04</v>
-      </c>
-      <c r="N20" s="12" t="n">
+      <c r="M20" s="12">
+        <v>263.04000000000002</v>
+      </c>
+      <c r="N20" s="12">
         <v>352.8</v>
       </c>
-      <c r="O20" s="12" t="n">
+      <c r="O20" s="12">
         <v>262.52</v>
       </c>
-      <c r="P20" s="12" t="n">
+      <c r="P20" s="12">
         <v>150.79</v>
       </c>
-      <c r="Q20" s="12" t="n">
+      <c r="Q20" s="12">
         <v>709.28</v>
       </c>
-      <c r="R20" s="12" t="n">
+      <c r="R20" s="12">
         <v>760.55</v>
       </c>
-      <c r="S20" s="12" t="n">
+      <c r="S20" s="12">
         <v>710.85</v>
       </c>
-      <c r="T20" s="12" t="n">
+      <c r="T20" s="12">
         <v>411.73</v>
       </c>
-      <c r="U20" s="12" t="n">
+      <c r="U20" s="12">
         <v>887.81</v>
       </c>
-      <c r="V20" s="12" t="n">
+      <c r="V20" s="12">
         <v>356.57</v>
       </c>
-      <c r="W20" s="12" t="n">
-        <v>290.72</v>
-      </c>
-      <c r="X20" s="12" t="n">
+      <c r="W20" s="12">
+        <v>290.72000000000003</v>
+      </c>
+      <c r="X20" s="12">
         <v>386.15</v>
       </c>
-      <c r="Y20" s="12" t="n">
+      <c r="Y20" s="12">
         <v>689.51</v>
       </c>
-      <c r="Z20" s="12" t="n">
+      <c r="Z20" s="12">
         <v>59.61</v>
       </c>
-      <c r="AA20" s="12" t="n">
+      <c r="AA20" s="12">
         <v>913.34</v>
       </c>
-      <c r="AB20" s="12" t="n">
+      <c r="AB20" s="12">
         <v>922.05</v>
       </c>
-      <c r="AC20" s="12" t="n">
+      <c r="AC20" s="12">
         <v>859.46</v>
       </c>
-      <c r="AD20" s="12" t="n">
+      <c r="AD20" s="12">
         <v>526.79</v>
       </c>
-      <c r="AE20" s="12" t="n">
+      <c r="AE20" s="12">
         <v>450.97</v>
       </c>
-      <c r="AF20" s="12" t="n">
+      <c r="AF20" s="12">
         <v>88.48</v>
       </c>
-      <c r="AG20" s="12" t="n">
+      <c r="AG20" s="12">
         <v>507.54</v>
       </c>
     </row>
-    <row r="21" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A21" s="5" t="n">
+    <row r="21" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="8">
         <v>468.67</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="8">
         <v>325.62</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="8">
         <v>938.44</v>
       </c>
-      <c r="G21" s="8" t="n">
-        <v>553.7</v>
-      </c>
-      <c r="H21" s="8" t="n">
+      <c r="G21" s="8">
+        <v>553.70000000000005</v>
+      </c>
+      <c r="H21" s="8">
         <v>689.47</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="8">
         <v>677.56</v>
       </c>
-      <c r="J21" s="8" t="n">
+      <c r="J21" s="8">
         <v>475.69</v>
       </c>
-      <c r="K21" s="8" t="n">
+      <c r="K21" s="8">
         <v>705.36</v>
       </c>
-      <c r="L21" s="8" t="n">
+      <c r="L21" s="8">
         <v>757.25</v>
       </c>
-      <c r="M21" s="8" t="n">
+      <c r="M21" s="8">
         <v>353.57</v>
       </c>
-      <c r="N21" s="8" t="n">
+      <c r="N21" s="8">
         <v>360.13</v>
       </c>
-      <c r="O21" s="8" t="n">
+      <c r="O21" s="8">
         <v>887.34</v>
       </c>
-      <c r="P21" s="8" t="n">
+      <c r="P21" s="8">
         <v>461.37</v>
       </c>
-      <c r="Q21" s="8" t="n">
+      <c r="Q21" s="8">
         <v>839.81</v>
       </c>
-      <c r="R21" s="8" t="n">
+      <c r="R21" s="8">
         <v>245.76</v>
       </c>
-      <c r="S21" s="8" t="n">
+      <c r="S21" s="8">
         <v>499.26</v>
       </c>
-      <c r="T21" s="8" t="n">
+      <c r="T21" s="8">
         <v>829</v>
       </c>
-      <c r="U21" s="8" t="n">
-        <v>593.93</v>
-      </c>
-      <c r="V21" s="8" t="n">
+      <c r="U21" s="8">
+        <v>593.92999999999995</v>
+      </c>
+      <c r="V21" s="8">
         <v>510.32</v>
       </c>
-      <c r="W21" s="8" t="n">
+      <c r="W21" s="8">
         <v>661.89</v>
       </c>
-      <c r="X21" s="8" t="n">
+      <c r="X21" s="8">
         <v>919.72</v>
       </c>
-      <c r="Y21" s="8" t="n">
+      <c r="Y21" s="8">
         <v>410.77</v>
       </c>
-      <c r="Z21" s="8" t="n">
+      <c r="Z21" s="8">
         <v>751.68</v>
       </c>
-      <c r="AA21" s="8" t="n">
+      <c r="AA21" s="8">
         <v>903.29</v>
       </c>
-      <c r="AB21" s="8" t="n">
+      <c r="AB21" s="8">
         <v>243.62</v>
       </c>
-      <c r="AC21" s="8" t="n">
+      <c r="AC21" s="8">
         <v>862.72</v>
       </c>
-      <c r="AD21" s="8" t="n">
+      <c r="AD21" s="8">
         <v>833.51</v>
       </c>
-      <c r="AE21" s="8" t="n">
+      <c r="AE21" s="8">
         <v>504.6</v>
       </c>
-      <c r="AF21" s="8" t="n">
+      <c r="AF21" s="8">
         <v>397.74</v>
       </c>
-      <c r="AG21" s="8" t="n">
-        <v>285.71</v>
+      <c r="AG21" s="8">
+        <v>285.70999999999998</v>
       </c>
     </row>
-    <row r="22" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A22" s="9" t="n">
+    <row r="22" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>30</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="11"/>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="12">
         <v>165.88</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="12">
         <v>799.1</v>
       </c>
-      <c r="F22" s="12" t="n">
+      <c r="F22" s="12">
         <v>838.4</v>
       </c>
-      <c r="G22" s="12" t="n">
+      <c r="G22" s="12">
         <v>498.56</v>
       </c>
-      <c r="H22" s="12" t="n">
+      <c r="H22" s="12">
         <v>713.71</v>
       </c>
-      <c r="I22" s="12" t="n">
+      <c r="I22" s="12">
         <v>918.85</v>
       </c>
-      <c r="J22" s="12" t="n">
+      <c r="J22" s="12">
         <v>50.44</v>
       </c>
-      <c r="K22" s="12" t="n">
+      <c r="K22" s="12">
         <v>582.24</v>
       </c>
-      <c r="L22" s="12" t="n">
-        <v>640.44</v>
-      </c>
-      <c r="M22" s="12" t="n">
+      <c r="L22" s="12">
+        <v>640.44000000000005</v>
+      </c>
+      <c r="M22" s="12">
         <v>224.45</v>
       </c>
-      <c r="N22" s="12" t="n">
+      <c r="N22" s="12">
         <v>410.03</v>
       </c>
-      <c r="O22" s="12" t="n">
+      <c r="O22" s="12">
         <v>350.63</v>
       </c>
-      <c r="P22" s="12" t="n">
+      <c r="P22" s="12">
         <v>486.99</v>
       </c>
-      <c r="Q22" s="12" t="n">
+      <c r="Q22" s="12">
         <v>613.61</v>
       </c>
-      <c r="R22" s="12" t="n">
+      <c r="R22" s="12">
         <v>594.99</v>
       </c>
-      <c r="S22" s="12" t="n">
+      <c r="S22" s="12">
         <v>781.36</v>
       </c>
-      <c r="T22" s="12" t="n">
+      <c r="T22" s="12">
         <v>399.96</v>
       </c>
-      <c r="U22" s="12" t="n">
-        <v>70.93</v>
-      </c>
-      <c r="V22" s="12" t="n">
+      <c r="U22" s="12">
+        <v>70.930000000000007</v>
+      </c>
+      <c r="V22" s="12">
         <v>436.71</v>
       </c>
-      <c r="W22" s="12" t="n">
+      <c r="W22" s="12">
         <v>576.48</v>
       </c>
-      <c r="X22" s="12" t="n">
+      <c r="X22" s="12">
         <v>815.57</v>
       </c>
-      <c r="Y22" s="12" t="n">
+      <c r="Y22" s="12">
         <v>476.53</v>
       </c>
-      <c r="Z22" s="12" t="n">
+      <c r="Z22" s="12">
         <v>996.68</v>
       </c>
-      <c r="AA22" s="12" t="n">
-        <v>539.58</v>
-      </c>
-      <c r="AB22" s="12" t="n">
+      <c r="AA22" s="12">
+        <v>539.58000000000004</v>
+      </c>
+      <c r="AB22" s="12">
         <v>473.14</v>
       </c>
-      <c r="AC22" s="12" t="n">
+      <c r="AC22" s="12">
         <v>389.06</v>
       </c>
-      <c r="AD22" s="12" t="n">
+      <c r="AD22" s="12">
         <v>395.55</v>
       </c>
-      <c r="AE22" s="12" t="n">
+      <c r="AE22" s="12">
         <v>782.92</v>
       </c>
-      <c r="AF22" s="12" t="n">
+      <c r="AF22" s="12">
         <v>93.31</v>
       </c>
-      <c r="AG22" s="12" t="n">
+      <c r="AG22" s="12">
         <v>816.48</v>
       </c>
     </row>
-    <row r="23" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A23" s="5" t="n">
+    <row r="23" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="8">
         <v>913.27</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="8">
         <v>440.32</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="8">
         <v>778.47</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="8">
         <v>746.08</v>
       </c>
-      <c r="H23" s="8" t="n">
+      <c r="H23" s="8">
         <v>368.14</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="8">
         <v>693.59</v>
       </c>
-      <c r="J23" s="8" t="n">
+      <c r="J23" s="8">
         <v>489.42</v>
       </c>
-      <c r="K23" s="8" t="n">
+      <c r="K23" s="8">
         <v>370.61</v>
       </c>
-      <c r="L23" s="8" t="n">
+      <c r="L23" s="8">
         <v>832.44</v>
       </c>
-      <c r="M23" s="8" t="n">
+      <c r="M23" s="8">
         <v>686.56</v>
       </c>
-      <c r="N23" s="8" t="n">
+      <c r="N23" s="8">
         <v>669.35</v>
       </c>
-      <c r="O23" s="8" t="n">
+      <c r="O23" s="8">
         <v>892.87</v>
       </c>
-      <c r="P23" s="8" t="n">
-        <v>522.95</v>
-      </c>
-      <c r="Q23" s="8" t="n">
+      <c r="P23" s="8">
+        <v>522.95000000000005</v>
+      </c>
+      <c r="Q23" s="8">
         <v>52.06</v>
       </c>
-      <c r="R23" s="8" t="n">
+      <c r="R23" s="8">
         <v>596.46</v>
       </c>
-      <c r="S23" s="8" t="n">
+      <c r="S23" s="8">
         <v>445.07</v>
       </c>
-      <c r="T23" s="8" t="n">
+      <c r="T23" s="8">
         <v>907.32</v>
       </c>
-      <c r="U23" s="8" t="n">
+      <c r="U23" s="8">
         <v>115.06</v>
       </c>
-      <c r="V23" s="8" t="n">
+      <c r="V23" s="8">
         <v>195.36</v>
       </c>
-      <c r="W23" s="8" t="n">
+      <c r="W23" s="8">
         <v>74.2</v>
       </c>
-      <c r="X23" s="8" t="n">
+      <c r="X23" s="8">
         <v>722.41</v>
       </c>
-      <c r="Y23" s="8" t="n">
+      <c r="Y23" s="8">
         <v>831.22</v>
       </c>
-      <c r="Z23" s="8" t="n">
+      <c r="Z23" s="8">
         <v>995.16</v>
       </c>
-      <c r="AA23" s="8" t="n">
+      <c r="AA23" s="8">
         <v>296.73</v>
       </c>
-      <c r="AB23" s="8" t="n">
+      <c r="AB23" s="8">
         <v>956.35</v>
       </c>
-      <c r="AC23" s="8" t="n">
+      <c r="AC23" s="8">
         <v>111.62</v>
       </c>
-      <c r="AD23" s="8" t="n">
+      <c r="AD23" s="8">
         <v>735.4</v>
       </c>
-      <c r="AE23" s="8" t="n">
+      <c r="AE23" s="8">
         <v>177.17</v>
       </c>
-      <c r="AF23" s="8" t="n">
+      <c r="AF23" s="8">
         <v>786.52</v>
       </c>
-      <c r="AG23" s="8" t="n">
+      <c r="AG23" s="8">
         <v>391.75</v>
       </c>
     </row>
-    <row r="24" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A24" s="9" t="n">
+    <row r="24" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>20</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="12">
         <v>639.29</v>
       </c>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="12">
         <v>822.52</v>
       </c>
-      <c r="F24" s="12" t="n">
+      <c r="F24" s="12">
         <v>432.95</v>
       </c>
-      <c r="G24" s="12" t="n">
+      <c r="G24" s="12">
         <v>269.27</v>
       </c>
-      <c r="H24" s="12" t="n">
+      <c r="H24" s="12">
         <v>916.17</v>
       </c>
-      <c r="I24" s="12" t="n">
+      <c r="I24" s="12">
         <v>432.01</v>
       </c>
-      <c r="J24" s="12" t="n">
+      <c r="J24" s="12">
         <v>622.61</v>
       </c>
-      <c r="K24" s="12" t="n">
+      <c r="K24" s="12">
         <v>981.16</v>
       </c>
-      <c r="L24" s="12" t="n">
+      <c r="L24" s="12">
         <v>305.19</v>
       </c>
-      <c r="M24" s="12" t="n">
+      <c r="M24" s="12">
         <v>357.79</v>
       </c>
-      <c r="N24" s="12" t="n">
+      <c r="N24" s="12">
         <v>233.11</v>
       </c>
-      <c r="O24" s="12" t="n">
+      <c r="O24" s="12">
         <v>982.72</v>
       </c>
-      <c r="P24" s="12" t="n">
+      <c r="P24" s="12">
         <v>184.94</v>
       </c>
-      <c r="Q24" s="12" t="n">
+      <c r="Q24" s="12">
         <v>353.52</v>
       </c>
-      <c r="R24" s="12" t="n">
+      <c r="R24" s="12">
         <v>861.75</v>
       </c>
-      <c r="S24" s="12" t="n">
-        <v>594.18</v>
-      </c>
-      <c r="T24" s="12" t="n">
+      <c r="S24" s="12">
+        <v>594.17999999999995</v>
+      </c>
+      <c r="T24" s="12">
         <v>935.63</v>
       </c>
-      <c r="U24" s="12" t="n">
+      <c r="U24" s="12">
         <v>806.31</v>
       </c>
-      <c r="V24" s="12" t="n">
+      <c r="V24" s="12">
         <v>785.69</v>
       </c>
-      <c r="W24" s="12" t="n">
-        <v>292.35</v>
-      </c>
-      <c r="X24" s="12" t="n">
+      <c r="W24" s="12">
+        <v>292.35000000000002</v>
+      </c>
+      <c r="X24" s="12">
         <v>686.49</v>
       </c>
-      <c r="Y24" s="12" t="n">
+      <c r="Y24" s="12">
         <v>860.75</v>
       </c>
-      <c r="Z24" s="12" t="n">
-        <v>603.17</v>
-      </c>
-      <c r="AA24" s="12" t="n">
+      <c r="Z24" s="12">
+        <v>603.16999999999996</v>
+      </c>
+      <c r="AA24" s="12">
         <v>53.46</v>
       </c>
-      <c r="AB24" s="12" t="n">
+      <c r="AB24" s="12">
         <v>333.94</v>
       </c>
-      <c r="AC24" s="12" t="n">
+      <c r="AC24" s="12">
         <v>869.63</v>
       </c>
-      <c r="AD24" s="12" t="n">
+      <c r="AD24" s="12">
         <v>501.94</v>
       </c>
-      <c r="AE24" s="12" t="n">
+      <c r="AE24" s="12">
         <v>513.86</v>
       </c>
-      <c r="AF24" s="12" t="n">
+      <c r="AF24" s="12">
         <v>873.25</v>
       </c>
-      <c r="AG24" s="12" t="n">
-        <v>154.67</v>
+      <c r="AG24" s="12">
+        <v>154.66999999999999</v>
       </c>
     </row>
-    <row r="25" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A25" s="5" t="n">
+    <row r="25" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="8">
         <v>229.36</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="8">
         <v>914.01</v>
       </c>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="8">
         <v>983.41</v>
       </c>
-      <c r="G25" s="8" t="n">
+      <c r="G25" s="8">
         <v>908.63</v>
       </c>
-      <c r="H25" s="8" t="n">
-        <v>274.29</v>
-      </c>
-      <c r="I25" s="8" t="n">
+      <c r="H25" s="8">
+        <v>274.29000000000002</v>
+      </c>
+      <c r="I25" s="8">
         <v>720.4</v>
       </c>
-      <c r="J25" s="8" t="n">
+      <c r="J25" s="8">
         <v>141.25</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K25" s="8">
         <v>316.83</v>
       </c>
-      <c r="L25" s="8" t="n">
+      <c r="L25" s="8">
         <v>137.34</v>
       </c>
-      <c r="M25" s="8" t="n">
+      <c r="M25" s="8">
         <v>362.69</v>
       </c>
-      <c r="N25" s="8" t="n">
+      <c r="N25" s="8">
         <v>162.18</v>
       </c>
-      <c r="O25" s="8" t="n">
+      <c r="O25" s="8">
         <v>821.92</v>
       </c>
-      <c r="P25" s="8" t="n">
+      <c r="P25" s="8">
         <v>498.96</v>
       </c>
-      <c r="Q25" s="8" t="n">
+      <c r="Q25" s="8">
         <v>500.88</v>
       </c>
-      <c r="R25" s="8" t="n">
+      <c r="R25" s="8">
         <v>930.7</v>
       </c>
-      <c r="S25" s="8" t="n">
+      <c r="S25" s="8">
         <v>543.01</v>
       </c>
-      <c r="T25" s="8" t="n">
+      <c r="T25" s="8">
         <v>859.09</v>
       </c>
-      <c r="U25" s="8" t="n">
-        <v>530.08</v>
-      </c>
-      <c r="V25" s="8" t="n">
+      <c r="U25" s="8">
+        <v>530.08000000000004</v>
+      </c>
+      <c r="V25" s="8">
         <v>164.37</v>
       </c>
-      <c r="W25" s="8" t="n">
-        <v>148.58</v>
-      </c>
-      <c r="X25" s="8" t="n">
+      <c r="W25" s="8">
+        <v>148.58000000000001</v>
+      </c>
+      <c r="X25" s="8">
         <v>870.1</v>
       </c>
-      <c r="Y25" s="8" t="n">
+      <c r="Y25" s="8">
         <v>586.28</v>
       </c>
-      <c r="Z25" s="8" t="n">
-        <v>540.56</v>
-      </c>
-      <c r="AA25" s="8" t="n">
+      <c r="Z25" s="8">
+        <v>540.55999999999995</v>
+      </c>
+      <c r="AA25" s="8">
         <v>478.82</v>
       </c>
-      <c r="AB25" s="8" t="n">
+      <c r="AB25" s="8">
         <v>856.23</v>
       </c>
-      <c r="AC25" s="8" t="n">
+      <c r="AC25" s="8">
         <v>413.99</v>
       </c>
-      <c r="AD25" s="8" t="n">
+      <c r="AD25" s="8">
         <v>843.03</v>
       </c>
-      <c r="AE25" s="8" t="n">
+      <c r="AE25" s="8">
         <v>377.83</v>
       </c>
-      <c r="AF25" s="8" t="n">
+      <c r="AF25" s="8">
         <v>975.5</v>
       </c>
-      <c r="AG25" s="8" t="n">
+      <c r="AG25" s="8">
         <v>874.02</v>
       </c>
     </row>
-    <row r="26" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A26" s="9" t="n">
+    <row r="26" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>32</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="12">
         <v>735.33</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="12">
         <v>439.92</v>
       </c>
-      <c r="F26" s="12" t="n">
+      <c r="F26" s="12">
         <v>247.09</v>
       </c>
-      <c r="G26" s="12" t="n">
+      <c r="G26" s="12">
         <v>770.38</v>
       </c>
-      <c r="H26" s="12" t="n">
+      <c r="H26" s="12">
         <v>749.02</v>
       </c>
-      <c r="I26" s="12" t="n">
+      <c r="I26" s="12">
         <v>53.05</v>
       </c>
-      <c r="J26" s="12" t="n">
+      <c r="J26" s="12">
         <v>104.32</v>
       </c>
-      <c r="K26" s="12" t="n">
+      <c r="K26" s="12">
         <v>110.73</v>
       </c>
-      <c r="L26" s="12" t="n">
-        <v>565.82</v>
-      </c>
-      <c r="M26" s="12" t="n">
+      <c r="L26" s="12">
+        <v>565.82000000000005</v>
+      </c>
+      <c r="M26" s="12">
         <v>63.25</v>
       </c>
-      <c r="N26" s="12" t="n">
-        <v>260.29</v>
-      </c>
-      <c r="O26" s="12" t="n">
+      <c r="N26" s="12">
+        <v>260.29000000000002</v>
+      </c>
+      <c r="O26" s="12">
         <v>97.02</v>
       </c>
-      <c r="P26" s="12" t="n">
+      <c r="P26" s="12">
         <v>385.29</v>
       </c>
-      <c r="Q26" s="12" t="n">
+      <c r="Q26" s="12">
         <v>598.27</v>
       </c>
-      <c r="R26" s="12" t="n">
+      <c r="R26" s="12">
         <v>280.75</v>
       </c>
-      <c r="S26" s="12" t="n">
+      <c r="S26" s="12">
         <v>512.79</v>
       </c>
-      <c r="T26" s="12" t="n">
+      <c r="T26" s="12">
         <v>766.09</v>
       </c>
-      <c r="U26" s="12" t="n">
+      <c r="U26" s="12">
         <v>998.91</v>
       </c>
-      <c r="V26" s="12" t="n">
+      <c r="V26" s="12">
         <v>593.34</v>
       </c>
-      <c r="W26" s="12" t="n">
+      <c r="W26" s="12">
         <v>797.13</v>
       </c>
-      <c r="X26" s="12" t="n">
+      <c r="X26" s="12">
         <v>551.34</v>
       </c>
-      <c r="Y26" s="12" t="n">
+      <c r="Y26" s="12">
         <v>825.66</v>
       </c>
-      <c r="Z26" s="12" t="n">
+      <c r="Z26" s="12">
         <v>681.86</v>
       </c>
-      <c r="AA26" s="12" t="n">
+      <c r="AA26" s="12">
         <v>215.03</v>
       </c>
-      <c r="AB26" s="12" t="n">
+      <c r="AB26" s="12">
         <v>174.14</v>
       </c>
-      <c r="AC26" s="12" t="n">
+      <c r="AC26" s="12">
         <v>136.87</v>
       </c>
-      <c r="AD26" s="12" t="n">
+      <c r="AD26" s="12">
         <v>253.88</v>
       </c>
-      <c r="AE26" s="12" t="n">
-        <v>318.1</v>
-      </c>
-      <c r="AF26" s="12" t="n">
+      <c r="AE26" s="12">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="AF26" s="12">
         <v>758.52</v>
       </c>
-      <c r="AG26" s="12" t="n">
+      <c r="AG26" s="12">
         <v>874.5</v>
       </c>
     </row>
-    <row r="27" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A27" s="5" t="n">
+    <row r="27" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>11</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="8" t="n">
+      <c r="D27" s="8">
         <v>693.84</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27" s="8">
         <v>484.42</v>
       </c>
-      <c r="F27" s="8" t="n">
+      <c r="F27" s="8">
         <v>579.59</v>
       </c>
-      <c r="G27" s="8" t="n">
+      <c r="G27" s="8">
         <v>371.38</v>
       </c>
-      <c r="H27" s="8" t="n">
+      <c r="H27" s="8">
         <v>716.17</v>
       </c>
-      <c r="I27" s="8" t="n">
-        <v>315.1</v>
-      </c>
-      <c r="J27" s="8" t="n">
+      <c r="I27" s="8">
+        <v>315.10000000000002</v>
+      </c>
+      <c r="J27" s="8">
         <v>768.1</v>
       </c>
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="8">
         <v>163.44</v>
       </c>
-      <c r="L27" s="8" t="n">
-        <v>306.54</v>
-      </c>
-      <c r="M27" s="8" t="n">
+      <c r="L27" s="8">
+        <v>306.54000000000002</v>
+      </c>
+      <c r="M27" s="8">
         <v>928.53</v>
       </c>
-      <c r="N27" s="8" t="n">
-        <v>541.55</v>
-      </c>
-      <c r="O27" s="8" t="n">
+      <c r="N27" s="8">
+        <v>541.54999999999995</v>
+      </c>
+      <c r="O27" s="8">
         <v>595.6</v>
       </c>
-      <c r="P27" s="8" t="n">
+      <c r="P27" s="8">
         <v>303.8</v>
       </c>
-      <c r="Q27" s="8" t="n">
+      <c r="Q27" s="8">
         <v>171.69</v>
       </c>
-      <c r="R27" s="8" t="n">
+      <c r="R27" s="8">
         <v>370.31</v>
       </c>
-      <c r="S27" s="8" t="n">
-        <v>546.08</v>
-      </c>
-      <c r="T27" s="8" t="n">
+      <c r="S27" s="8">
+        <v>546.08000000000004</v>
+      </c>
+      <c r="T27" s="8">
         <v>239.64</v>
       </c>
-      <c r="U27" s="8" t="n">
+      <c r="U27" s="8">
         <v>341.68</v>
       </c>
-      <c r="V27" s="8" t="n">
+      <c r="V27" s="8">
         <v>140.88</v>
       </c>
-      <c r="W27" s="8" t="n">
-        <v>326.04</v>
-      </c>
-      <c r="X27" s="8" t="n">
+      <c r="W27" s="8">
+        <v>326.04000000000002</v>
+      </c>
+      <c r="X27" s="8">
         <v>61.55</v>
       </c>
-      <c r="Y27" s="8" t="n">
+      <c r="Y27" s="8">
         <v>327.48</v>
       </c>
-      <c r="Z27" s="8" t="n">
-        <v>581.83</v>
-      </c>
-      <c r="AA27" s="8" t="n">
-        <v>134.55</v>
-      </c>
-      <c r="AB27" s="8" t="n">
+      <c r="Z27" s="8">
+        <v>581.83000000000004</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>134.55000000000001</v>
+      </c>
+      <c r="AB27" s="8">
         <v>246.94</v>
       </c>
-      <c r="AC27" s="8" t="n">
+      <c r="AC27" s="8">
         <v>333.55</v>
       </c>
-      <c r="AD27" s="8" t="n">
+      <c r="AD27" s="8">
         <v>258.02</v>
       </c>
-      <c r="AE27" s="8" t="n">
+      <c r="AE27" s="8">
         <v>663.34</v>
       </c>
-      <c r="AF27" s="8" t="n">
+      <c r="AF27" s="8">
         <v>285.8</v>
       </c>
-      <c r="AG27" s="8" t="n">
+      <c r="AG27" s="8">
         <v>899.53</v>
       </c>
     </row>
-    <row r="28" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A28" s="9" t="n">
+    <row r="28" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>16</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="12">
         <v>513.35</v>
       </c>
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="12">
         <v>497.68</v>
       </c>
-      <c r="F28" s="12" t="n">
+      <c r="F28" s="12">
         <v>883.76</v>
       </c>
-      <c r="G28" s="12" t="n">
+      <c r="G28" s="12">
         <v>859.53</v>
       </c>
-      <c r="H28" s="12" t="n">
+      <c r="H28" s="12">
         <v>316.76</v>
       </c>
-      <c r="I28" s="12" t="n">
+      <c r="I28" s="12">
         <v>770.93</v>
       </c>
-      <c r="J28" s="12" t="n">
-        <v>654.43</v>
-      </c>
-      <c r="K28" s="12" t="n">
+      <c r="J28" s="12">
+        <v>654.42999999999995</v>
+      </c>
+      <c r="K28" s="12">
         <v>713.2</v>
       </c>
-      <c r="L28" s="12" t="n">
+      <c r="L28" s="12">
         <v>126.13</v>
       </c>
-      <c r="M28" s="12" t="n">
+      <c r="M28" s="12">
         <v>829.76</v>
       </c>
-      <c r="N28" s="12" t="n">
+      <c r="N28" s="12">
         <v>912.61</v>
       </c>
-      <c r="O28" s="12" t="n">
+      <c r="O28" s="12">
         <v>281.68</v>
       </c>
-      <c r="P28" s="12" t="n">
-        <v>566.94</v>
-      </c>
-      <c r="Q28" s="12" t="n">
+      <c r="P28" s="12">
+        <v>566.94000000000005</v>
+      </c>
+      <c r="Q28" s="12">
         <v>785.44</v>
       </c>
-      <c r="R28" s="12" t="n">
+      <c r="R28" s="12">
         <v>462.84</v>
       </c>
-      <c r="S28" s="12" t="n">
+      <c r="S28" s="12">
         <v>760.3</v>
       </c>
-      <c r="T28" s="12" t="n">
+      <c r="T28" s="12">
         <v>618.89</v>
       </c>
-      <c r="U28" s="12" t="n">
+      <c r="U28" s="12">
         <v>654.4</v>
       </c>
-      <c r="V28" s="12" t="n">
+      <c r="V28" s="12">
         <v>523.21</v>
       </c>
-      <c r="W28" s="12" t="n">
+      <c r="W28" s="12">
         <v>685.54</v>
       </c>
-      <c r="X28" s="12" t="n">
+      <c r="X28" s="12">
         <v>350.79</v>
       </c>
-      <c r="Y28" s="12" t="n">
+      <c r="Y28" s="12">
         <v>864.11</v>
       </c>
-      <c r="Z28" s="12" t="n">
+      <c r="Z28" s="12">
         <v>463.07</v>
       </c>
-      <c r="AA28" s="12" t="n">
-        <v>286.65</v>
-      </c>
-      <c r="AB28" s="12" t="n">
+      <c r="AA28" s="12">
+        <v>286.64999999999998</v>
+      </c>
+      <c r="AB28" s="12">
         <v>399.37</v>
       </c>
-      <c r="AC28" s="12" t="n">
+      <c r="AC28" s="12">
         <v>385.83</v>
       </c>
-      <c r="AD28" s="12" t="n">
+      <c r="AD28" s="12">
         <v>620.84</v>
       </c>
-      <c r="AE28" s="12" t="n">
+      <c r="AE28" s="12">
         <v>538.21</v>
       </c>
-      <c r="AF28" s="12" t="n">
+      <c r="AF28" s="12">
         <v>968.95</v>
       </c>
-      <c r="AG28" s="12" t="n">
+      <c r="AG28" s="12">
         <v>243.7</v>
       </c>
     </row>
-    <row r="29" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A29" s="5" t="n">
+    <row r="29" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="8" t="n">
-        <v>536.68</v>
-      </c>
-      <c r="E29" s="8" t="n">
+      <c r="D29" s="8">
+        <v>536.67999999999995</v>
+      </c>
+      <c r="E29" s="8">
         <v>657.96</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="8">
         <v>109.87</v>
       </c>
-      <c r="G29" s="8" t="n">
+      <c r="G29" s="8">
         <v>448.32</v>
       </c>
-      <c r="H29" s="8" t="n">
-        <v>573.18</v>
-      </c>
-      <c r="I29" s="8" t="n">
+      <c r="H29" s="8">
+        <v>573.17999999999995</v>
+      </c>
+      <c r="I29" s="8">
         <v>138.94</v>
       </c>
-      <c r="J29" s="8" t="n">
+      <c r="J29" s="8">
         <v>568.23</v>
       </c>
-      <c r="K29" s="8" t="n">
+      <c r="K29" s="8">
         <v>459.82</v>
       </c>
-      <c r="L29" s="8" t="n">
+      <c r="L29" s="8">
         <v>449.08</v>
       </c>
-      <c r="M29" s="8" t="n">
+      <c r="M29" s="8">
         <v>844.98</v>
       </c>
-      <c r="N29" s="8" t="n">
+      <c r="N29" s="8">
         <v>445.83</v>
       </c>
-      <c r="O29" s="8" t="n">
+      <c r="O29" s="8">
         <v>688.49</v>
       </c>
-      <c r="P29" s="8" t="n">
+      <c r="P29" s="8">
         <v>896.75</v>
       </c>
-      <c r="Q29" s="8" t="n">
+      <c r="Q29" s="8">
         <v>833.47</v>
       </c>
-      <c r="R29" s="8" t="n">
+      <c r="R29" s="8">
         <v>572.65</v>
       </c>
-      <c r="S29" s="8" t="n">
-        <v>64.21</v>
-      </c>
-      <c r="T29" s="8" t="n">
+      <c r="S29" s="8">
+        <v>64.209999999999994</v>
+      </c>
+      <c r="T29" s="8">
         <v>444.91</v>
       </c>
-      <c r="U29" s="8" t="n">
+      <c r="U29" s="8">
         <v>978.57</v>
       </c>
-      <c r="V29" s="8" t="n">
+      <c r="V29" s="8">
         <v>934.25</v>
       </c>
-      <c r="W29" s="8" t="n">
+      <c r="W29" s="8">
         <v>386.98</v>
       </c>
-      <c r="X29" s="8" t="n">
-        <v>611.67</v>
-      </c>
-      <c r="Y29" s="8" t="n">
+      <c r="X29" s="8">
+        <v>611.66999999999996</v>
+      </c>
+      <c r="Y29" s="8">
         <v>805.9</v>
       </c>
-      <c r="Z29" s="8" t="n">
+      <c r="Z29" s="8">
         <v>885.75</v>
       </c>
-      <c r="AA29" s="8" t="n">
+      <c r="AA29" s="8">
         <v>861.17</v>
       </c>
-      <c r="AB29" s="8" t="n">
+      <c r="AB29" s="8">
         <v>494.36</v>
       </c>
-      <c r="AC29" s="8" t="n">
+      <c r="AC29" s="8">
         <v>430.56</v>
       </c>
-      <c r="AD29" s="8" t="n">
+      <c r="AD29" s="8">
         <v>51.93</v>
       </c>
-      <c r="AE29" s="8" t="n">
+      <c r="AE29" s="8">
         <v>835.27</v>
       </c>
-      <c r="AF29" s="8" t="n">
-        <v>150.27</v>
-      </c>
-      <c r="AG29" s="8" t="n">
+      <c r="AF29" s="8">
+        <v>150.27000000000001</v>
+      </c>
+      <c r="AG29" s="8">
         <v>638.96</v>
       </c>
     </row>
-    <row r="30" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A30" s="9" t="n">
+    <row r="30" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>34</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="12" t="n">
+      <c r="D30" s="12">
         <v>877.56</v>
       </c>
-      <c r="E30" s="12" t="n">
+      <c r="E30" s="12">
         <v>565.02</v>
       </c>
-      <c r="F30" s="12" t="n">
+      <c r="F30" s="12">
         <v>419.8</v>
       </c>
-      <c r="G30" s="12" t="n">
+      <c r="G30" s="12">
         <v>907.95</v>
       </c>
-      <c r="H30" s="12" t="n">
+      <c r="H30" s="12">
         <v>678.6</v>
       </c>
-      <c r="I30" s="12" t="n">
+      <c r="I30" s="12">
         <v>459.61</v>
       </c>
-      <c r="J30" s="12" t="n">
+      <c r="J30" s="12">
         <v>493.09</v>
       </c>
-      <c r="K30" s="12" t="n">
+      <c r="K30" s="12">
         <v>702.71</v>
       </c>
-      <c r="L30" s="12" t="n">
+      <c r="L30" s="12">
         <v>814.14</v>
       </c>
-      <c r="M30" s="12" t="n">
+      <c r="M30" s="12">
         <v>995.74</v>
       </c>
-      <c r="N30" s="12" t="n">
+      <c r="N30" s="12">
         <v>725.83</v>
       </c>
-      <c r="O30" s="12" t="n">
+      <c r="O30" s="12">
         <v>118.9</v>
       </c>
-      <c r="P30" s="12" t="n">
+      <c r="P30" s="12">
         <v>261.43</v>
       </c>
-      <c r="Q30" s="12" t="n">
+      <c r="Q30" s="12">
         <v>694.13</v>
       </c>
-      <c r="R30" s="12" t="n">
+      <c r="R30" s="12">
         <v>506.41</v>
       </c>
-      <c r="S30" s="12" t="n">
+      <c r="S30" s="12">
         <v>311.89</v>
       </c>
-      <c r="T30" s="12" t="n">
+      <c r="T30" s="12">
         <v>536.51</v>
       </c>
-      <c r="U30" s="12" t="n">
+      <c r="U30" s="12">
         <v>93.59</v>
       </c>
-      <c r="V30" s="12" t="n">
+      <c r="V30" s="12">
         <v>102.84</v>
       </c>
-      <c r="W30" s="12" t="n">
+      <c r="W30" s="12">
         <v>480.71</v>
       </c>
-      <c r="X30" s="12" t="n">
+      <c r="X30" s="12">
         <v>377.59</v>
       </c>
-      <c r="Y30" s="12" t="n">
+      <c r="Y30" s="12">
         <v>590.03</v>
       </c>
-      <c r="Z30" s="12" t="n">
+      <c r="Z30" s="12">
         <v>957.61</v>
       </c>
-      <c r="AA30" s="12" t="n">
+      <c r="AA30" s="12">
         <v>768.14</v>
       </c>
-      <c r="AB30" s="12" t="n">
+      <c r="AB30" s="12">
         <v>787.84</v>
       </c>
-      <c r="AC30" s="12" t="n">
+      <c r="AC30" s="12">
         <v>432.75</v>
       </c>
-      <c r="AD30" s="12" t="n">
+      <c r="AD30" s="12">
         <v>218.53</v>
       </c>
-      <c r="AE30" s="12" t="n">
+      <c r="AE30" s="12">
         <v>868.92</v>
       </c>
-      <c r="AF30" s="12" t="n">
+      <c r="AF30" s="12">
         <v>116.32</v>
       </c>
-      <c r="AG30" s="12" t="n">
+      <c r="AG30" s="12">
         <v>287.8</v>
       </c>
     </row>
-    <row r="31" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A31" s="5" t="n">
+    <row r="31" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>39</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="8">
         <v>690.79</v>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="E31" s="8">
         <v>679.08</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="8">
         <v>783.62</v>
       </c>
-      <c r="G31" s="8" t="n">
+      <c r="G31" s="8">
         <v>654.65</v>
       </c>
-      <c r="H31" s="8" t="n">
+      <c r="H31" s="8">
         <v>401.45</v>
       </c>
-      <c r="I31" s="8" t="n">
+      <c r="I31" s="8">
         <v>839.02</v>
       </c>
-      <c r="J31" s="8" t="n">
+      <c r="J31" s="8">
         <v>744.3</v>
       </c>
-      <c r="K31" s="8" t="n">
+      <c r="K31" s="8">
         <v>769.46</v>
       </c>
-      <c r="L31" s="8" t="n">
+      <c r="L31" s="8">
         <v>203.61</v>
       </c>
-      <c r="M31" s="8" t="n">
+      <c r="M31" s="8">
         <v>51</v>
       </c>
-      <c r="N31" s="8" t="n">
+      <c r="N31" s="8">
         <v>739.16</v>
       </c>
-      <c r="O31" s="8" t="n">
+      <c r="O31" s="8">
         <v>602.14</v>
       </c>
-      <c r="P31" s="8" t="n">
+      <c r="P31" s="8">
         <v>517.15</v>
       </c>
-      <c r="Q31" s="8" t="n">
+      <c r="Q31" s="8">
         <v>602.09</v>
       </c>
-      <c r="R31" s="8" t="n">
+      <c r="R31" s="8">
         <v>543.4</v>
       </c>
-      <c r="S31" s="8" t="n">
+      <c r="S31" s="8">
         <v>242.98</v>
       </c>
-      <c r="T31" s="8" t="n">
+      <c r="T31" s="8">
         <v>697.51</v>
       </c>
-      <c r="U31" s="8" t="n">
+      <c r="U31" s="8">
         <v>844.62</v>
       </c>
-      <c r="V31" s="8" t="n">
+      <c r="V31" s="8">
         <v>340.32</v>
       </c>
-      <c r="W31" s="8" t="n">
-        <v>283.15</v>
-      </c>
-      <c r="X31" s="8" t="n">
+      <c r="W31" s="8">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="X31" s="8">
         <v>120.28</v>
       </c>
-      <c r="Y31" s="8" t="n">
+      <c r="Y31" s="8">
         <v>195.22</v>
       </c>
-      <c r="Z31" s="8" t="n">
+      <c r="Z31" s="8">
         <v>978.56</v>
       </c>
-      <c r="AA31" s="8" t="n">
+      <c r="AA31" s="8">
         <v>357.82</v>
       </c>
-      <c r="AB31" s="8" t="n">
-        <v>623.8</v>
-      </c>
-      <c r="AC31" s="8" t="n">
+      <c r="AB31" s="8">
+        <v>623.79999999999995</v>
+      </c>
+      <c r="AC31" s="8">
         <v>142.74</v>
       </c>
-      <c r="AD31" s="8" t="n">
+      <c r="AD31" s="8">
         <v>305.17</v>
       </c>
-      <c r="AE31" s="8" t="n">
+      <c r="AE31" s="8">
         <v>503.91</v>
       </c>
-      <c r="AF31" s="8" t="n">
-        <v>645.17</v>
-      </c>
-      <c r="AG31" s="8" t="n">
+      <c r="AF31" s="8">
+        <v>645.16999999999996</v>
+      </c>
+      <c r="AG31" s="8">
         <v>195.76</v>
       </c>
     </row>
-    <row r="32" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A32" s="9" t="n">
+    <row r="32" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>23</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="12">
         <v>374.93</v>
       </c>
-      <c r="E32" s="12" t="n">
+      <c r="E32" s="12">
         <v>811.56</v>
       </c>
-      <c r="F32" s="12" t="n">
+      <c r="F32" s="12">
         <v>753.52</v>
       </c>
-      <c r="G32" s="12" t="n">
+      <c r="G32" s="12">
         <v>93.09</v>
       </c>
-      <c r="H32" s="12" t="n">
-        <v>299.97</v>
-      </c>
-      <c r="I32" s="12" t="n">
-        <v>326.03</v>
-      </c>
-      <c r="J32" s="12" t="n">
+      <c r="H32" s="12">
+        <v>299.97000000000003</v>
+      </c>
+      <c r="I32" s="12">
+        <v>326.02999999999997</v>
+      </c>
+      <c r="J32" s="12">
         <v>229.38</v>
       </c>
-      <c r="K32" s="12" t="n">
+      <c r="K32" s="12">
         <v>616</v>
       </c>
-      <c r="L32" s="12" t="n">
+      <c r="L32" s="12">
         <v>740.13</v>
       </c>
-      <c r="M32" s="12" t="n">
+      <c r="M32" s="12">
         <v>776.8</v>
       </c>
-      <c r="N32" s="12" t="n">
+      <c r="N32" s="12">
         <v>429.14</v>
       </c>
-      <c r="O32" s="12" t="n">
+      <c r="O32" s="12">
         <v>821.23</v>
       </c>
-      <c r="P32" s="12" t="n">
+      <c r="P32" s="12">
         <v>619.28</v>
       </c>
-      <c r="Q32" s="12" t="n">
+      <c r="Q32" s="12">
         <v>949.79</v>
       </c>
-      <c r="R32" s="12" t="n">
+      <c r="R32" s="12">
         <v>575.52</v>
       </c>
-      <c r="S32" s="12" t="n">
+      <c r="S32" s="12">
         <v>876.62</v>
       </c>
-      <c r="T32" s="12" t="n">
+      <c r="T32" s="12">
         <v>436.1</v>
       </c>
-      <c r="U32" s="12" t="n">
+      <c r="U32" s="12">
         <v>432.83</v>
       </c>
-      <c r="V32" s="12" t="n">
+      <c r="V32" s="12">
         <v>368.27</v>
       </c>
-      <c r="W32" s="12" t="n">
+      <c r="W32" s="12">
         <v>329.46</v>
       </c>
-      <c r="X32" s="12" t="n">
+      <c r="X32" s="12">
         <v>310.2</v>
       </c>
-      <c r="Y32" s="12" t="n">
+      <c r="Y32" s="12">
         <v>303.81</v>
       </c>
-      <c r="Z32" s="12" t="n">
+      <c r="Z32" s="12">
         <v>690.79</v>
       </c>
-      <c r="AA32" s="12" t="n">
+      <c r="AA32" s="12">
         <v>618.88</v>
       </c>
-      <c r="AB32" s="12" t="n">
+      <c r="AB32" s="12">
         <v>650.59</v>
       </c>
-      <c r="AC32" s="12" t="n">
+      <c r="AC32" s="12">
         <v>981.04</v>
       </c>
-      <c r="AD32" s="12" t="n">
+      <c r="AD32" s="12">
         <v>88.51</v>
       </c>
-      <c r="AE32" s="12" t="n">
+      <c r="AE32" s="12">
         <v>111.8</v>
       </c>
-      <c r="AF32" s="12" t="n">
-        <v>283.59</v>
-      </c>
-      <c r="AG32" s="12" t="n">
+      <c r="AF32" s="12">
+        <v>283.58999999999997</v>
+      </c>
+      <c r="AG32" s="12">
         <v>673.45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:AG1"/>
   </mergeCells>
-  <pageSetup orientation="default" fitToHeight="0" fitToWidth="0" cellComments="none"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" fitToHeight="0"/>
 </worksheet>
 </file>
--- a/Reports/Моніторінг_цін.xlsx
+++ b/Reports/Моніторінг_цін.xlsx
@@ -679,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
@@ -3802,11 +3802,6 @@
         <v>673.45</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
